--- a/Index Excel sheet for.xlsx
+++ b/Index Excel sheet for.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC263B51-B192-4450-93B4-3B7EF66C2E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,103 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t># 0000_Index</t>
+  </si>
+  <si>
+    <t>Hey everyone, this is just an index file containing all the repo names and work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 ----------------- Index file ----------------- </t>
+  </si>
+  <si>
+    <t>0001 ----------------- 0001-Lab00_ML_python-basic-swansea-university -----------------</t>
+  </si>
+  <si>
+    <t>0002 ----------------- 0002-Machine-leanring-lab-1-Iris-data-set -----------------</t>
+  </si>
+  <si>
+    <t>0003 ----------------- 0003-Lab-02-ML-Identifying-the-dataset-contents-and-shape -----------------</t>
+  </si>
+  <si>
+    <t>0004 ----------------- 0004-LR-PCA-LDA-PCA-ny-hand-Lab03 -----------------</t>
+  </si>
+  <si>
+    <t>0005 ----------------- 0005-Lab-04-ML-SVM-NN-CNN -----------------</t>
+  </si>
+  <si>
+    <t>0006 ----------------- 0006-ML-CW1-Object-recognition-CNN -----------------</t>
+  </si>
+  <si>
+    <t>0007 ----------------- 0007-DM--Lab-01--Learning-Python -----------------</t>
+  </si>
+  <si>
+    <t>0008 ----------------- 0008-DM-Lab-02-Classification-Naive-Bayes-Cross-Validation-Likelihood-Priori-Posterior-Performance -----------------</t>
+  </si>
+  <si>
+    <t>0009 ----------------- 0009-DM-CW-Basic-I-O-Frequent-Itemset-apriori-associated-rule--FP-Growth-rule-Reusability-of-code -----------------</t>
+  </si>
+  <si>
+    <t>0010 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0011 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0012 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0013 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0014 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0015 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0016 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0017 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0018 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0019 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0020 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>002 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0030 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>003 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>0040 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>004 -----------------  -----------------</t>
+  </si>
+  <si>
+    <t>[Sample]</t>
+  </si>
+  <si>
+    <t>0000 -----------------  -----------------</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +431,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>